--- a/artfynd/A 73903-2021.xlsx
+++ b/artfynd/A 73903-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16224569</v>
+        <v>98626868</v>
       </c>
       <c r="B2" t="n">
-        <v>90645</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,47 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fagerskogen NV om Enköping, Upl</t>
+          <t>Fagerskogen, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>616052.5333881245</v>
+        <v>615830.89429001</v>
       </c>
       <c r="R2" t="n">
-        <v>6615307.527057721</v>
+        <v>6615365.88299895</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,27 +760,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2012-11-09</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2012-11-09</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ca. 5 grupper intill en stig, i äldre, grandominerad barrskog.</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,28 +786,23 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Äldre, grandominerad barrskog.</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97846853</v>
+        <v>98626812</v>
       </c>
       <c r="B3" t="n">
         <v>89392</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>615993.2375419403</v>
+        <v>615849.857293937</v>
       </c>
       <c r="R3" t="n">
-        <v>6615324.901887218</v>
+        <v>6615375.066482737</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -882,22 +882,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97847132</v>
+        <v>16224569</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>90645</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,47 +940,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fagerskogen, Upl</t>
+          <t>Fagerskogen NV om Enköping, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>616011.918254371</v>
+        <v>616052.5333881245</v>
       </c>
       <c r="R4" t="n">
-        <v>6615343.179256288</v>
+        <v>6615307.527057721</v>
       </c>
       <c r="S4" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,27 +994,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2012-11-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2012-11-09</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Mkt på låga där även rynkskinn växer.</t>
+          <t>Ca. 5 grupper intill en stig, i äldre, grandominerad barrskog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1035,26 +1025,31 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Äldre, grandominerad barrskog.</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97847223</v>
+        <v>97846853</v>
       </c>
       <c r="B5" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,28 +1058,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1092,13 +1096,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>616011.918254371</v>
+        <v>615993.2375419403</v>
       </c>
       <c r="R5" t="n">
-        <v>6615343.179256288</v>
+        <v>6615324.901887218</v>
       </c>
       <c r="S5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1137,12 +1141,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Mest äldre fruktkroppsskinn, torra mörka. Även rikligt m ullticka på lågan.</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97847952</v>
+        <v>97847132</v>
       </c>
       <c r="B6" t="n">
         <v>89392</v>
@@ -1204,7 +1203,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,13 +1218,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>615980.6290926996</v>
+        <v>616011.918254371</v>
       </c>
       <c r="R6" t="n">
-        <v>6615306.812889767</v>
+        <v>6615343.179256288</v>
       </c>
       <c r="S6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1254,7 +1253,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,12 +1263,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Tre lågor i kors över liten blickhöjd. Rikligt m granbarkborredrabbade granar, stående och lågor.</t>
+          <t>Mkt på låga där även rynkskinn växer.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1296,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98626002</v>
+        <v>97847223</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1308,37 +1307,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1346,13 +1336,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>615986.851705556</v>
+        <v>616011.918254371</v>
       </c>
       <c r="R7" t="n">
-        <v>6615334.81681291</v>
+        <v>6615343.179256288</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1376,22 +1366,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Mest äldre fruktkroppsskinn, torra mörka. Även rikligt m ullticka på lågan.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,7 +1413,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98627344</v>
+        <v>97847952</v>
       </c>
       <c r="B8" t="n">
         <v>89392</v>
@@ -1453,7 +1448,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1468,13 +1463,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616038.7249405473</v>
+        <v>615980.6290926996</v>
       </c>
       <c r="R8" t="n">
-        <v>6615295.468402361</v>
+        <v>6615306.812889767</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1498,27 +1493,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På högstubbe inom gallringssnitslad yta.</t>
+          <t>Tre lågor i kors över liten blickhöjd. Rikligt m granbarkborredrabbade granar, stående och lågor.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1545,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98625991</v>
+        <v>98626002</v>
       </c>
       <c r="B9" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1557,30 +1552,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1595,13 +1590,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616001.3609402425</v>
+        <v>615986.851705556</v>
       </c>
       <c r="R9" t="n">
-        <v>6615307.961694983</v>
+        <v>6615334.81681291</v>
       </c>
       <c r="S9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1630,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:11</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1640,7 +1635,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:11</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1667,10 +1662,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98627443</v>
+        <v>98627344</v>
       </c>
       <c r="B10" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,30 +1674,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1717,13 +1712,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616050.8984120202</v>
+        <v>616038.7249405473</v>
       </c>
       <c r="R10" t="n">
-        <v>6615343.883299443</v>
+        <v>6615295.468402361</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1752,7 +1747,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1762,12 +1757,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Låga som ligger intill, parallellt med stig ca 15 m från banvallen.</t>
+          <t>På högstubbe inom gallringssnitslad yta.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1794,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98626007</v>
+        <v>98625991</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1806,30 +1801,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1844,13 +1839,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>615989.4400052857</v>
+        <v>616001.3609402425</v>
       </c>
       <c r="R11" t="n">
-        <v>6615316.6936346</v>
+        <v>6615307.961694983</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1879,7 +1874,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1889,7 +1884,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1916,10 +1911,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98626868</v>
+        <v>98627443</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1928,30 +1923,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1966,10 +1961,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>615830.89429001</v>
+        <v>616050.8984120202</v>
       </c>
       <c r="R12" t="n">
-        <v>6615365.88299895</v>
+        <v>6615343.883299443</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2001,7 +1996,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2011,7 +2006,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Låga som ligger intill, parallellt med stig ca 15 m från banvallen.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98625884</v>
+        <v>98626007</v>
       </c>
       <c r="B13" t="n">
         <v>89392</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2088,13 +2088,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616064.5485954987</v>
+        <v>615989.4400052857</v>
       </c>
       <c r="R13" t="n">
-        <v>6615295.764271611</v>
+        <v>6615316.6936346</v>
       </c>
       <c r="S13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2160,7 +2160,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98626812</v>
+        <v>98625884</v>
       </c>
       <c r="B14" t="n">
         <v>89392</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>615849.857293937</v>
+        <v>616064.5485954987</v>
       </c>
       <c r="R14" t="n">
-        <v>6615375.066482737</v>
+        <v>6615295.764271611</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 73903-2021.xlsx
+++ b/artfynd/A 73903-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98626868</v>
+        <v>16224569</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>90645</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,47 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fagerskogen, Upl</t>
+          <t>Fagerskogen NV om Enköping, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>615830.89429001</v>
+        <v>616052.5333881245</v>
       </c>
       <c r="R2" t="n">
-        <v>6615365.88299895</v>
+        <v>6615307.527057721</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,22 +750,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2012-11-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2012-11-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ca. 5 grupper intill en stig, i äldre, grandominerad barrskog.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,23 +781,28 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Äldre, grandominerad barrskog.</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98626812</v>
+        <v>97846853</v>
       </c>
       <c r="B3" t="n">
         <v>89392</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>615849.857293937</v>
+        <v>615993.2375419403</v>
       </c>
       <c r="R3" t="n">
-        <v>6615375.066482737</v>
+        <v>6615324.901887218</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -882,22 +882,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16224569</v>
+        <v>97847132</v>
       </c>
       <c r="B4" t="n">
-        <v>90645</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,37 +940,47 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fagerskogen NV om Enköping, Upl</t>
+          <t>Fagerskogen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>616052.5333881245</v>
+        <v>616011.918254371</v>
       </c>
       <c r="R4" t="n">
-        <v>6615307.527057721</v>
+        <v>6615343.179256288</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,27 +1004,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2012-11-09</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2012-11-09</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ca. 5 grupper intill en stig, i äldre, grandominerad barrskog.</t>
+          <t>Mkt på låga där även rynkskinn växer.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,31 +1035,26 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Äldre, grandominerad barrskog.</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97846853</v>
+        <v>97847223</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,37 +1063,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1096,13 +1092,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>615993.2375419403</v>
+        <v>616011.918254371</v>
       </c>
       <c r="R5" t="n">
-        <v>6615324.901887218</v>
+        <v>6615343.179256288</v>
       </c>
       <c r="S5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1131,7 +1127,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1137,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Mest äldre fruktkroppsskinn, torra mörka. Även rikligt m ullticka på lågan.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97847132</v>
+        <v>97847952</v>
       </c>
       <c r="B6" t="n">
         <v>89392</v>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1218,13 +1219,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616011.918254371</v>
+        <v>615980.6290926996</v>
       </c>
       <c r="R6" t="n">
-        <v>6615343.179256288</v>
+        <v>6615306.812889767</v>
       </c>
       <c r="S6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1263,12 +1264,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Mkt på låga där även rynkskinn växer.</t>
+          <t>Tre lågor i kors över liten blickhöjd. Rikligt m granbarkborredrabbade granar, stående och lågor.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1295,10 +1296,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97847223</v>
+        <v>98626002</v>
       </c>
       <c r="B7" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1307,28 +1308,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1336,13 +1346,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616011.918254371</v>
+        <v>615986.851705556</v>
       </c>
       <c r="R7" t="n">
-        <v>6615343.179256288</v>
+        <v>6615334.81681291</v>
       </c>
       <c r="S7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1366,27 +1376,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Mest äldre fruktkroppsskinn, torra mörka. Även rikligt m ullticka på lågan.</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1413,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97847952</v>
+        <v>98627344</v>
       </c>
       <c r="B8" t="n">
         <v>89392</v>
@@ -1448,7 +1453,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1463,13 +1468,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>615980.6290926996</v>
+        <v>616038.7249405473</v>
       </c>
       <c r="R8" t="n">
-        <v>6615306.812889767</v>
+        <v>6615295.468402361</v>
       </c>
       <c r="S8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1493,27 +1498,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Tre lågor i kors över liten blickhöjd. Rikligt m granbarkborredrabbade granar, stående och lågor.</t>
+          <t>På högstubbe inom gallringssnitslad yta.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1545,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98626002</v>
+        <v>98625991</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1552,30 +1557,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1590,13 +1595,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>615986.851705556</v>
+        <v>616001.3609402425</v>
       </c>
       <c r="R9" t="n">
-        <v>6615334.81681291</v>
+        <v>6615307.961694983</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1625,7 +1630,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,7 +1640,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1662,10 +1667,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98627344</v>
+        <v>98627443</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1674,30 +1679,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1712,13 +1717,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616038.7249405473</v>
+        <v>616050.8984120202</v>
       </c>
       <c r="R10" t="n">
-        <v>6615295.468402361</v>
+        <v>6615343.883299443</v>
       </c>
       <c r="S10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1747,7 +1752,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1757,12 +1762,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På högstubbe inom gallringssnitslad yta.</t>
+          <t>Låga som ligger intill, parallellt med stig ca 15 m från banvallen.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1789,10 +1794,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98625991</v>
+        <v>98626007</v>
       </c>
       <c r="B11" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1801,30 +1806,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1839,13 +1844,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616001.3609402425</v>
+        <v>615989.4400052857</v>
       </c>
       <c r="R11" t="n">
-        <v>6615307.961694983</v>
+        <v>6615316.6936346</v>
       </c>
       <c r="S11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1874,7 +1879,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>09:11</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1884,7 +1889,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>09:11</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1911,10 +1916,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98627443</v>
+        <v>98626868</v>
       </c>
       <c r="B12" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1923,30 +1928,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1961,10 +1966,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616050.8984120202</v>
+        <v>615830.89429001</v>
       </c>
       <c r="R12" t="n">
-        <v>6615343.883299443</v>
+        <v>6615365.88299895</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1996,7 +2001,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2006,12 +2011,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Låga som ligger intill, parallellt med stig ca 15 m från banvallen.</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98626007</v>
+        <v>98625884</v>
       </c>
       <c r="B13" t="n">
         <v>89392</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2088,13 +2088,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>615989.4400052857</v>
+        <v>616064.5485954987</v>
       </c>
       <c r="R13" t="n">
-        <v>6615316.6936346</v>
+        <v>6615295.764271611</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2160,7 +2160,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98625884</v>
+        <v>98626812</v>
       </c>
       <c r="B14" t="n">
         <v>89392</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616064.5485954987</v>
+        <v>615849.857293937</v>
       </c>
       <c r="R14" t="n">
-        <v>6615295.764271611</v>
+        <v>6615375.066482737</v>
       </c>
       <c r="S14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD14" t="b">
